--- a/THE BEST OF THE BEST 2023.xlsx
+++ b/THE BEST OF THE BEST 2023.xlsx
@@ -4778,7 +4778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4809,30 +4809,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -4858,21 +4878,37 @@
       <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1647.74</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>the   jadey bunch</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>90.22</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>1521.34</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Pan + the Lost Boys </t>
         </is>
@@ -4898,21 +4934,37 @@
       <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1595.4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Team Sunshine</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>122.02</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>21</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1421.42</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Team Sunshine</t>
         </is>
@@ -4938,21 +4990,37 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1556.32</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crazy Kat</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-3</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1430.84</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve">Off Script </t>
         </is>
@@ -4978,21 +5046,37 @@
       <c r="E5" t="n">
         <v>14</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1550</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maid of Honor</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>138.74</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>27</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1504.96</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Toon Squad</t>
         </is>
@@ -5018,21 +5102,37 @@
       <c r="E6" t="n">
         <v>30</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1647.74</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Toon Squad</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>96.16</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>15</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1550</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Pan + the Lost Boys </t>
         </is>
@@ -5058,21 +5158,37 @@
       <c r="E7" t="n">
         <v>16</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1421.42</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Off Script </t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>110.18</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1556.32</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t xml:space="preserve">Off Script </t>
         </is>
@@ -5098,21 +5214,37 @@
       <c r="E8" t="n">
         <v>40</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1647.74</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Off Script </t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>124.3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1556.32</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Pan + the Lost Boys </t>
         </is>
